--- a/spanish translations.xlsx
+++ b/spanish translations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOANER\OneDrive - nd.edu\R work directory\cnpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232C1092-8715-431A-BADB-145BE1B5E10C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{232C1092-8715-431A-BADB-145BE1B5E10C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{735AD206-2DFE-4F0B-B693-AE48051A3841}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10872" windowHeight="5640" xr2:uid="{E3C0E695-FE78-49B7-8264-22D4378B5875}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10872" windowHeight="5640" activeTab="1" xr2:uid="{E3C0E695-FE78-49B7-8264-22D4378B5875}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t>Trabajar horas adicionales en un trabajo</t>
   </si>
   <si>
-    <t>Completar un programa de entrenamiento o educaciÃ³n</t>
-  </si>
-  <si>
     <t>Completar un tratamiento medico</t>
   </si>
   <si>
@@ -147,6 +144,9 @@
   </si>
   <si>
     <t>Hispanic or Latino</t>
+  </si>
+  <si>
+    <t>Completar un programa de entrenamiento o educación</t>
   </si>
 </sst>
 </file>
@@ -500,7 +500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C3FC99-7FC9-4932-BC69-6DCF3069130E}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -511,34 +511,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
         <v>29</v>
-      </c>
-      <c r="B1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -546,39 +546,39 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
         <v>35</v>
-      </c>
-      <c r="B8" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
         <v>38</v>
-      </c>
-      <c r="B9" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -590,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864DB5A8-B7B0-4E36-BFCC-6753E6DACF3F}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -607,10 +607,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
         <v>29</v>
-      </c>
-      <c r="B1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -618,7 +618,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -626,23 +626,23 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -650,7 +650,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -658,7 +658,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -666,7 +666,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -674,7 +674,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -682,15 +682,15 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -713,26 +713,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
         <v>29</v>
-      </c>
-      <c r="B1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
         <v>31</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -740,7 +740,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -748,7 +748,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -756,7 +756,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -775,15 +775,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007C8412A36915D84CA2A8D6C78C86C71E" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="befbf68e66096ee422401df5ec2888b1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="0003fbe8-ec17-412c-94cc-e7ef51759275" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8bd5d84cfe463117aa8336d05af3046f" ns1:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -984,32 +975,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3AAE914-F139-458F-A5DC-7E801A253C69}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="0003fbe8-ec17-412c-94cc-e7ef51759275"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6ECA6225-BF9E-4EB1-BF3E-980CC3674385}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE6E436B-7DD9-46E8-B7C2-ADB42288B9BB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1026,4 +1018,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6ECA6225-BF9E-4EB1-BF3E-980CC3674385}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>